--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Bmpr1a.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H2">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N2">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O2">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P2">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q2">
-        <v>2.598878652612556</v>
+        <v>0.9235428984148889</v>
       </c>
       <c r="R2">
-        <v>23.389907873513</v>
+        <v>8.311886085734001</v>
       </c>
       <c r="S2">
-        <v>0.05421422589203381</v>
+        <v>0.02157758766014575</v>
       </c>
       <c r="T2">
-        <v>0.06244756723485425</v>
+        <v>0.02433980236238719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H3">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P3">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q3">
-        <v>24.14244454827989</v>
+        <v>11.74322349838656</v>
       </c>
       <c r="R3">
-        <v>217.282000934519</v>
+        <v>105.689011485479</v>
       </c>
       <c r="S3">
-        <v>0.5036264163432924</v>
+        <v>0.2743678013051941</v>
       </c>
       <c r="T3">
-        <v>0.5801105517669622</v>
+        <v>0.3094904844578921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H4">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I4">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J4">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N4">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O4">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P4">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q4">
-        <v>0.7457732458053332</v>
+        <v>0.5604571438957778</v>
       </c>
       <c r="R4">
-        <v>6.711959212247999</v>
+        <v>5.044114295062</v>
       </c>
       <c r="S4">
-        <v>0.01555729397818605</v>
+        <v>0.01309447906851135</v>
       </c>
       <c r="T4">
-        <v>0.0179199305294871</v>
+        <v>0.0147707444217529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H5">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I5">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J5">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N5">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O5">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P5">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q5">
-        <v>18.1808117537625</v>
+        <v>6.995208657657001</v>
       </c>
       <c r="R5">
-        <v>109.084870522575</v>
+        <v>41.971251945942</v>
       </c>
       <c r="S5">
-        <v>0.3792630465174577</v>
+        <v>0.1634355353396879</v>
       </c>
       <c r="T5">
-        <v>0.2912403427624423</v>
+        <v>0.1229049540295733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H6">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I6">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J6">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N6">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O6">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P6">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q6">
-        <v>0.2975314715446666</v>
+        <v>0.3241236834012222</v>
       </c>
       <c r="R6">
-        <v>2.677783243901999</v>
+        <v>2.917113150611</v>
       </c>
       <c r="S6">
-        <v>0.006206691640679897</v>
+        <v>0.007572801656883434</v>
       </c>
       <c r="T6">
-        <v>0.007149282077904174</v>
+        <v>0.008542219758816912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H7">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I7">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J7">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N7">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O7">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P7">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q7">
-        <v>0.1114834985733334</v>
+        <v>1.000311599398222</v>
       </c>
       <c r="R7">
-        <v>1.00335148716</v>
+        <v>9.002804394584</v>
       </c>
       <c r="S7">
-        <v>0.002325615152832597</v>
+        <v>0.02337120588607382</v>
       </c>
       <c r="T7">
-        <v>0.002678798898800642</v>
+        <v>0.02636302728540762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H8">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I8">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J8">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O8">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P8">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q8">
-        <v>1.035632879453333</v>
+        <v>12.71936874824489</v>
       </c>
       <c r="R8">
-        <v>9.320695915080002</v>
+        <v>114.474318734204</v>
       </c>
       <c r="S8">
-        <v>0.02160394630640369</v>
+        <v>0.2971743863961563</v>
       </c>
       <c r="T8">
-        <v>0.02488486863566125</v>
+        <v>0.3352166120685464</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H9">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I9">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J9">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N9">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O9">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P9">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q9">
-        <v>0.03199126304</v>
+        <v>0.6070446570124444</v>
       </c>
       <c r="R9">
-        <v>0.28792136736</v>
+        <v>5.463401913112</v>
       </c>
       <c r="S9">
-        <v>0.000667357654147693</v>
+        <v>0.01418294626355816</v>
       </c>
       <c r="T9">
-        <v>0.0007687071297499856</v>
+        <v>0.01599854971781548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H10">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I10">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J10">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N10">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O10">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P10">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q10">
-        <v>0.7798980915000001</v>
+        <v>7.576679299332</v>
       </c>
       <c r="R10">
-        <v>4.679388549</v>
+        <v>45.460075795992</v>
       </c>
       <c r="S10">
-        <v>0.01626915949416991</v>
+        <v>0.1770209722090287</v>
       </c>
       <c r="T10">
-        <v>0.01249326985860401</v>
+        <v>0.1331213215436982</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H11">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I11">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J11">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N11">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O11">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P11">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q11">
-        <v>0.01276313896</v>
+        <v>0.3510661829595555</v>
       </c>
       <c r="R11">
-        <v>0.11486825064</v>
+        <v>3.159595646636</v>
       </c>
       <c r="S11">
-        <v>0.00026624702079617</v>
+        <v>0.008202284214760467</v>
       </c>
       <c r="T11">
-        <v>0.0003066811055341757</v>
+        <v>0.009252284354109745</v>
       </c>
     </row>
   </sheetData>
